--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43051,6 +43051,41 @@
         <v>969300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1340500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43086,6 +43086,41 @@
         <v>1340500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>686300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43121,6 +43121,41 @@
         <v>686300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>761200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43156,6 +43156,41 @@
         <v>761200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>698300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43191,6 +43191,41 @@
         <v>698300</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>759000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43226,6 +43226,41 @@
         <v>759000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>2702000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43261,6 +43261,41 @@
         <v>2702000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2786100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43296,6 +43296,41 @@
         <v>2786100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>771800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43331,6 +43331,41 @@
         <v>771800</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>4435100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43366,6 +43366,41 @@
         <v>4435100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>3668600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43401,6 +43401,41 @@
         <v>3668600</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>7099500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43436,6 +43436,41 @@
         <v>7099500</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>2489200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43471,6 +43471,76 @@
         <v>2489200</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>2410200</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>4682300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43541,6 +43541,76 @@
         <v>4682300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>3781300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2943600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43611,6 +43611,41 @@
         <v>2943600</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1253900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43646,6 +43646,41 @@
         <v>1253900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>600000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43681,6 +43681,41 @@
         <v>600000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>2054100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43716,6 +43716,41 @@
         <v>2054100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>5978400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43751,6 +43751,76 @@
         <v>5978400</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>4590200</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2212400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43821,6 +43821,41 @@
         <v>2212400</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>4881600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43856,6 +43856,41 @@
         <v>4881600</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>10422400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2696"/>
+  <dimension ref="A1:I2697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94816,6 +94816,41 @@
         <v>10422400</v>
       </c>
     </row>
+    <row r="2697">
+      <c r="A2697" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2697" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2697" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2697" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2697" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F2697" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G2697" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H2697" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I2697" t="n">
+        <v>6086500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2697"/>
+  <dimension ref="A1:I2698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94851,6 +94851,41 @@
         <v>6086500</v>
       </c>
     </row>
+    <row r="2698">
+      <c r="A2698" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2698" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2698" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2698" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2698" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F2698" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G2698" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H2698" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I2698" t="n">
+        <v>4215500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2698"/>
+  <dimension ref="A1:I2699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94886,6 +94886,41 @@
         <v>4215500</v>
       </c>
     </row>
+    <row r="2699">
+      <c r="A2699" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2699" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2699" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2699" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2699" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F2699" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G2699" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H2699" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I2699" t="n">
+        <v>6225700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2699"/>
+  <dimension ref="A1:I2700"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94921,6 +94921,41 @@
         <v>6225700</v>
       </c>
     </row>
+    <row r="2700">
+      <c r="A2700" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2700" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2700" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2700" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2700" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F2700" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G2700" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="H2700" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I2700" t="n">
+        <v>2101600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2700"/>
+  <dimension ref="A1:I2701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94956,6 +94956,41 @@
         <v>2101600</v>
       </c>
     </row>
+    <row r="2701">
+      <c r="A2701" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2701" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2701" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2701" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2701" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F2701" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G2701" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H2701" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I2701" t="n">
+        <v>3706400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2701"/>
+  <dimension ref="A1:I2702"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94991,6 +94991,41 @@
         <v>3706400</v>
       </c>
     </row>
+    <row r="2702">
+      <c r="A2702" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2702" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2702" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2702" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2702" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F2702" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G2702" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H2702" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I2702" t="n">
+        <v>1919700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2702"/>
+  <dimension ref="A1:I2703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95026,6 +95026,41 @@
         <v>1919700</v>
       </c>
     </row>
+    <row r="2703">
+      <c r="A2703" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2703" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2703" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2703" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2703" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F2703" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G2703" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H2703" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I2703" t="n">
+        <v>2303600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2703"/>
+  <dimension ref="A1:I2704"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95061,6 +95061,41 @@
         <v>2303600</v>
       </c>
     </row>
+    <row r="2704">
+      <c r="A2704" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2704" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2704" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2704" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2704" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F2704" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G2704" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H2704" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I2704" t="n">
+        <v>4699200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2704"/>
+  <dimension ref="A1:I2705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95096,6 +95096,41 @@
         <v>4699200</v>
       </c>
     </row>
+    <row r="2705">
+      <c r="A2705" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2705" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2705" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2705" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2705" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F2705" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G2705" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H2705" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I2705" t="n">
+        <v>1626200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2705"/>
+  <dimension ref="A1:I2706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95131,6 +95131,41 @@
         <v>1626200</v>
       </c>
     </row>
+    <row r="2706">
+      <c r="A2706" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2706" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2706" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2706" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2706" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F2706" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="G2706" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H2706" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I2706" t="n">
+        <v>2936700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2706"/>
+  <dimension ref="A1:I2707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95166,6 +95166,41 @@
         <v>2936700</v>
       </c>
     </row>
+    <row r="2707">
+      <c r="A2707" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2707" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2707" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2707" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2707" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F2707" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G2707" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H2707" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="I2707" t="n">
+        <v>2647500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2707"/>
+  <dimension ref="A1:I2708"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95201,6 +95201,41 @@
         <v>2647500</v>
       </c>
     </row>
+    <row r="2708">
+      <c r="A2708" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2708" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2708" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2708" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2708" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F2708" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G2708" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H2708" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2708" t="n">
+        <v>3053900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2708"/>
+  <dimension ref="A1:I2709"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95236,6 +95236,41 @@
         <v>3053900</v>
       </c>
     </row>
+    <row r="2709">
+      <c r="A2709" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2709" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2709" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2709" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2709" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F2709" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G2709" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H2709" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I2709" t="n">
+        <v>2809700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2709"/>
+  <dimension ref="A1:I2710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95271,6 +95271,41 @@
         <v>2809700</v>
       </c>
     </row>
+    <row r="2710">
+      <c r="A2710" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2710" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2710" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2710" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2710" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="F2710" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="G2710" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2710" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="I2710" t="n">
+        <v>1038600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2710"/>
+  <dimension ref="A1:I2711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95306,6 +95306,41 @@
         <v>1038600</v>
       </c>
     </row>
+    <row r="2711">
+      <c r="A2711" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2711" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2711" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2711" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2711" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F2711" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G2711" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H2711" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="I2711" t="n">
+        <v>920300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2947"/>
+  <dimension ref="A1:I2948"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103601,6 +103601,41 @@
         <v>920300</v>
       </c>
     </row>
+    <row r="2948">
+      <c r="A2948" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2948" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2948" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2948" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2948" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F2948" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G2948" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H2948" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I2948" t="n">
+        <v>1459300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2948"/>
+  <dimension ref="A1:I2949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103636,6 +103636,41 @@
         <v>1459300</v>
       </c>
     </row>
+    <row r="2949">
+      <c r="A2949" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2949" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2949" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2949" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2949" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F2949" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G2949" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="H2949" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I2949" t="n">
+        <v>4610300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2949"/>
+  <dimension ref="A1:I2950"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103671,6 +103671,41 @@
         <v>4610300</v>
       </c>
     </row>
+    <row r="2950">
+      <c r="A2950" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2950" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2950" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2950" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2950" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F2950" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="G2950" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H2950" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I2950" t="n">
+        <v>1376900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2950"/>
+  <dimension ref="A1:I2951"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103706,6 +103706,41 @@
         <v>1376900</v>
       </c>
     </row>
+    <row r="2951">
+      <c r="A2951" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2951" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2951" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2951" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2951" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F2951" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G2951" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H2951" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I2951" t="n">
+        <v>1325000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2951"/>
+  <dimension ref="A1:I2952"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103741,6 +103741,41 @@
         <v>1325000</v>
       </c>
     </row>
+    <row r="2952">
+      <c r="A2952" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2952" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2952" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2952" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2952" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F2952" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G2952" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H2952" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I2952" t="n">
+        <v>1373300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2952"/>
+  <dimension ref="A1:I2953"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103776,6 +103776,41 @@
         <v>1373300</v>
       </c>
     </row>
+    <row r="2953">
+      <c r="A2953" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2953" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2953" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2953" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2953" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F2953" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G2953" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H2953" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2953" t="n">
+        <v>2352200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2953"/>
+  <dimension ref="A1:I2954"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103811,6 +103811,41 @@
         <v>2352200</v>
       </c>
     </row>
+    <row r="2954">
+      <c r="A2954" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2954" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2954" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2954" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2954" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F2954" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G2954" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H2954" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2954" t="n">
+        <v>1417000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2954"/>
+  <dimension ref="A1:I2955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103846,6 +103846,41 @@
         <v>1417000</v>
       </c>
     </row>
+    <row r="2955">
+      <c r="A2955" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2955" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2955" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2955" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2955" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F2955" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="G2955" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H2955" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I2955" t="n">
+        <v>1422100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2955"/>
+  <dimension ref="A1:I2956"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103881,6 +103881,41 @@
         <v>1422100</v>
       </c>
     </row>
+    <row r="2956">
+      <c r="A2956" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2956" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2956" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2956" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2956" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F2956" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G2956" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H2956" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="I2956" t="n">
+        <v>2588000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2956"/>
+  <dimension ref="A1:I2957"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103916,6 +103916,41 @@
         <v>2588000</v>
       </c>
     </row>
+    <row r="2957">
+      <c r="A2957" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2957" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2957" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2957" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2957" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F2957" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G2957" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H2957" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I2957" t="n">
+        <v>3679100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2957"/>
+  <dimension ref="A1:I2959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103951,6 +103951,76 @@
         <v>3679100</v>
       </c>
     </row>
+    <row r="2958">
+      <c r="A2958" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2958" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2958" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2958" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2958" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F2958" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G2958" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H2958" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="I2958" t="n">
+        <v>4026900</v>
+      </c>
+    </row>
+    <row r="2959">
+      <c r="A2959" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2959" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2959" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2959" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2959" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F2959" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G2959" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H2959" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I2959" t="n">
+        <v>1736200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2959"/>
+  <dimension ref="A1:I2960"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104021,6 +104021,41 @@
         <v>1736200</v>
       </c>
     </row>
+    <row r="2960">
+      <c r="A2960" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2960" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2960" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2960" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2960" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F2960" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="G2960" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H2960" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I2960" t="n">
+        <v>1585100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2960"/>
+  <dimension ref="A1:I2963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104056,6 +104056,111 @@
         <v>1585100</v>
       </c>
     </row>
+    <row r="2961">
+      <c r="A2961" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2961" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2961" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2961" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2961" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F2961" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G2961" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="H2961" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I2961" t="n">
+        <v>2648300</v>
+      </c>
+    </row>
+    <row r="2962">
+      <c r="A2962" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2962" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2962" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2962" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2962" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F2962" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G2962" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H2962" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="I2962" t="n">
+        <v>1274000</v>
+      </c>
+    </row>
+    <row r="2963">
+      <c r="A2963" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2963" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2963" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2963" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2963" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="F2963" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G2963" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H2963" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I2963" t="n">
+        <v>927200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2963"/>
+  <dimension ref="A1:I2964"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104161,6 +104161,41 @@
         <v>927200</v>
       </c>
     </row>
+    <row r="2964">
+      <c r="A2964" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2964" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2964" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2964" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2964" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F2964" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="G2964" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="H2964" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I2964" t="n">
+        <v>750400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2964"/>
+  <dimension ref="A1:I2965"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104196,6 +104196,41 @@
         <v>750400</v>
       </c>
     </row>
+    <row r="2965">
+      <c r="A2965" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2965" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2965" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2965" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2965" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F2965" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G2965" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="H2965" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="I2965" t="n">
+        <v>1446400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5102.xlsx
+++ b/data/5102.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2965"/>
+  <dimension ref="A1:I2968"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104231,6 +104231,111 @@
         <v>1446400</v>
       </c>
     </row>
+    <row r="2966">
+      <c r="A2966" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2966" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2966" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2966" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2966" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F2966" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="G2966" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H2966" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="I2966" t="n">
+        <v>1984400</v>
+      </c>
+    </row>
+    <row r="2967">
+      <c r="A2967" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2967" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2967" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2967" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2967" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F2967" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G2967" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H2967" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="I2967" t="n">
+        <v>2010600</v>
+      </c>
+    </row>
+    <row r="2968">
+      <c r="A2968" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2968" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2968" t="inlineStr">
+        <is>
+          <t>5102</t>
+        </is>
+      </c>
+      <c r="D2968" t="inlineStr">
+        <is>
+          <t>GCB</t>
+        </is>
+      </c>
+      <c r="E2968" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="F2968" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="G2968" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="H2968" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I2968" t="n">
+        <v>2471700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
